--- a/data/CoronaNYCCases.xlsx
+++ b/data/CoronaNYCCases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishimura_yuki/Desktop/NYCrimeCoronaAnalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishimura_yuki/Desktop/Hobby/NYCrimeCoronaAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3AA599-96F5-7644-A962-79D68F2AD9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89B6BAA7-AC6C-4940-BDDC-A3E86AA7A7B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="460" windowWidth="27640" windowHeight="15740" xr2:uid="{D8C05B08-63BD-B649-B05B-5EA0D306DAD9}"/>
+    <workbookView xWindow="5220" yWindow="460" windowWidth="27640" windowHeight="15920" xr2:uid="{A53A4A67-B70E-E746-8E4E-AA6A8E72EC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="CoronaNYCCases" sheetId="1" r:id="rId1"/>
@@ -31,25 +31,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Cases</t>
   </si>
+  <si>
+    <t>Hospital_Cases</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,9 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,197 +408,615 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5409DEA-098A-F241-83C0-F92D4CD7C8E8}">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0E76CF-A90E-5844-B9C4-984C45B5664C}">
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43891</v>
-      </c>
-      <c r="B2">
+        <v>43892</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43892</v>
-      </c>
-      <c r="B3">
+        <v>43893</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43893</v>
-      </c>
-      <c r="B4">
+        <v>43894</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B7" s="2">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B8" s="2">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B9" s="2">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B10" s="2">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2">
+        <v>47</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B11" s="2">
+        <v>157</v>
+      </c>
+      <c r="C11" s="2">
+        <v>70</v>
+      </c>
+      <c r="D11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>43894</v>
-      </c>
-      <c r="B5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B12" s="2">
+        <v>358</v>
+      </c>
+      <c r="C12" s="2">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B13" s="2">
+        <v>622</v>
+      </c>
+      <c r="C13" s="2">
+        <v>138</v>
+      </c>
+      <c r="D13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43895</v>
-      </c>
-      <c r="B6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B14" s="2">
+        <v>645</v>
+      </c>
+      <c r="C14" s="2">
+        <v>155</v>
+      </c>
+      <c r="D14" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>43896</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>43897</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>43899</v>
-      </c>
-      <c r="B10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B11">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1029</v>
+      </c>
+      <c r="C15" s="2">
+        <v>187</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2107</v>
+      </c>
+      <c r="C16" s="2">
+        <v>303</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2392</v>
+      </c>
+      <c r="C17" s="2">
+        <v>341</v>
+      </c>
+      <c r="D17" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43901</v>
-      </c>
-      <c r="B12">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2930</v>
+      </c>
+      <c r="C18" s="2">
+        <v>442</v>
+      </c>
+      <c r="D18" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43902</v>
-      </c>
-      <c r="B13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>43903</v>
-      </c>
-      <c r="B14">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>43904</v>
-      </c>
-      <c r="B15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3659</v>
+      </c>
+      <c r="C19" s="2">
+        <v>537</v>
+      </c>
+      <c r="D19" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3960</v>
+      </c>
+      <c r="C20" s="2">
+        <v>633</v>
+      </c>
+      <c r="D20" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2592</v>
+      </c>
+      <c r="C21" s="2">
+        <v>669</v>
+      </c>
+      <c r="D21" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2543</v>
+      </c>
+      <c r="C22" s="2">
+        <v>706</v>
+      </c>
+      <c r="D22" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>43905</v>
-      </c>
-      <c r="B16">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>43906</v>
-      </c>
-      <c r="B17">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B18">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>43908</v>
-      </c>
-      <c r="B19">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>43909</v>
-      </c>
-      <c r="B20">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>43910</v>
-      </c>
-      <c r="B21">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>43911</v>
-      </c>
-      <c r="B22">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43912</v>
-      </c>
-      <c r="B23">
-        <v>2649</v>
+        <v>43913</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3482</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1018</v>
+      </c>
+      <c r="D23" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4369</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1130</v>
+      </c>
+      <c r="D24" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4707</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1265</v>
+      </c>
+      <c r="D25" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4874</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1368</v>
+      </c>
+      <c r="D26" s="2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4964</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1341</v>
+      </c>
+      <c r="D27" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3350</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1261</v>
+      </c>
+      <c r="D28" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3426</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1357</v>
+      </c>
+      <c r="D29" s="2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5979</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1632</v>
+      </c>
+      <c r="D30" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5143</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1473</v>
+      </c>
+      <c r="D31" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4895</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1440</v>
+      </c>
+      <c r="D32" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B33" s="2">
+        <v>5540</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1620</v>
+      </c>
+      <c r="D33" s="2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5399</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1625</v>
+      </c>
+      <c r="D34" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3679</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1366</v>
+      </c>
+      <c r="D35" s="2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3567</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1344</v>
+      </c>
+      <c r="D36" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B37" s="2">
+        <v>6143</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1611</v>
+      </c>
+      <c r="D37" s="2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B38" s="2">
+        <v>5763</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1368</v>
+      </c>
+      <c r="D38" s="2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5290</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1302</v>
+      </c>
+      <c r="D39" s="2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B40" s="2">
+        <v>4759</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1015</v>
+      </c>
+      <c r="D40" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4104</v>
+      </c>
+      <c r="C41" s="2">
+        <v>925</v>
+      </c>
+      <c r="D41" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3285</v>
+      </c>
+      <c r="C42" s="2">
+        <v>694</v>
+      </c>
+      <c r="D42" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2400</v>
+      </c>
+      <c r="C43" s="2">
+        <v>625</v>
+      </c>
+      <c r="D43" s="2">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
